--- a/StructureDefinition-ncpi-family-role.xlsx
+++ b/StructureDefinition-ncpi-family-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-role.xlsx
+++ b/StructureDefinition-ncpi-family-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-role.xlsx
+++ b/StructureDefinition-ncpi-family-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>75</v>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>84</v>

--- a/StructureDefinition-ncpi-family-role.xlsx
+++ b/StructureDefinition-ncpi-family-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-role.xlsx
+++ b/StructureDefinition-ncpi-family-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-role.xlsx
+++ b/StructureDefinition-ncpi-family-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>75</v>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>84</v>
